--- a/patient_data/patient_93.xlsx
+++ b/patient_data/patient_93.xlsx
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1907,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -1975,22 +1975,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2112,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
